--- a/data/Ergebnisse.xlsx
+++ b/data/Ergebnisse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px2030\Code\PSD_opt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF674AD-871E-4D76-909B-841689B16A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A5333F-7EDD-4440-AD51-805B687F53F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="74">
   <si>
     <t>corr_beta</t>
   </si>
@@ -100,25 +100,163 @@
     <t>sim time(s)</t>
   </si>
   <si>
-    <t>0.80  0.06  0.73</t>
-  </si>
-  <si>
-    <t>0.95  0.33  0.70</t>
-  </si>
-  <si>
-    <t>1.0  0.0  1.0</t>
-  </si>
-  <si>
     <t>Mean Squared Error, MSE</t>
   </si>
   <si>
     <t>0.5  0.5  0.01</t>
+  </si>
+  <si>
+    <t>1  1  0</t>
+  </si>
+  <si>
+    <t>0.8  0.5  0.2</t>
+  </si>
+  <si>
+    <t>0.53  0.25  0.09</t>
+  </si>
+  <si>
+    <t>0.94  0.95  0.19</t>
+  </si>
+  <si>
+    <t>0.86  0.71  0.33</t>
+  </si>
+  <si>
+    <t>Multiplicative</t>
+  </si>
+  <si>
+    <t>1  1  0.23</t>
+  </si>
+  <si>
+    <t>0.6  0.4  0.13</t>
+  </si>
+  <si>
+    <t>1  0.52  0.28</t>
+  </si>
+  <si>
+    <t>KL divergence</t>
+  </si>
+  <si>
+    <t>1  1  0.48</t>
+  </si>
+  <si>
+    <t>1  1  0.24</t>
+  </si>
+  <si>
+    <t>1  1  0.41</t>
+  </si>
+  <si>
+    <t>time sum</t>
+  </si>
+  <si>
+    <t>time mean</t>
+  </si>
+  <si>
+    <t>0.97  0.97  0.28</t>
+  </si>
+  <si>
+    <t>0.55  0.58  0.11</t>
+  </si>
+  <si>
+    <t>0.98  0.44  0.24</t>
+  </si>
+  <si>
+    <t>delta2d*10</t>
+  </si>
+  <si>
+    <t>no weight</t>
+  </si>
+  <si>
+    <t>0.95  0.98  0.24</t>
+  </si>
+  <si>
+    <t>0.56  0.31  0.11</t>
+  </si>
+  <si>
+    <t>0.63  0.01  0.15</t>
+  </si>
+  <si>
+    <t>1  0.63  0.24</t>
+  </si>
+  <si>
+    <t>0.86  0.94  0.29</t>
+  </si>
+  <si>
+    <t>0.80  0.75  0.25</t>
+  </si>
+  <si>
+    <t>Notitz</t>
+  </si>
+  <si>
+    <t>more i_iter give bad results</t>
+  </si>
+  <si>
+    <t>1  1  0.39</t>
+  </si>
+  <si>
+    <t>0.98  0.85  0.3</t>
+  </si>
+  <si>
+    <t>0.99  0.85  0.22</t>
+  </si>
+  <si>
+    <t>mean_diff</t>
+  </si>
+  <si>
+    <t>0.96  0.71  0.26</t>
+  </si>
+  <si>
+    <t>1  0.49  0.33</t>
+  </si>
+  <si>
+    <t>1  0.44  0.30</t>
+  </si>
+  <si>
+    <t>1  0.48  0.32</t>
+  </si>
+  <si>
+    <t>0.9  0.65  0.40</t>
+  </si>
+  <si>
+    <t>using different particle size</t>
+  </si>
+  <si>
+    <t>0.92  0.92  0.33</t>
+  </si>
+  <si>
+    <t>0.96  0.54  0.22</t>
+  </si>
+  <si>
+    <t>1  1  0.25</t>
+  </si>
+  <si>
+    <t>delta2d*5</t>
+  </si>
+  <si>
+    <t>1  0.57  0.32</t>
+  </si>
+  <si>
+    <t>1  0.75  0.22</t>
+  </si>
+  <si>
+    <t>0.98  0.91  0.29</t>
+  </si>
+  <si>
+    <t>1  0.88  0.31</t>
+  </si>
+  <si>
+    <t>1  0.54  0.32</t>
+  </si>
+  <si>
+    <t>1  0.77  0.26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -143,21 +281,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -166,13 +307,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -453,17 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="I52" workbookViewId="0">
+      <selection activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
@@ -474,9 +624,25 @@
     <col min="13" max="13" width="16.85546875" customWidth="1"/>
     <col min="14" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.28515625" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" customWidth="1"/>
+    <col min="28" max="28" width="4" customWidth="1"/>
+    <col min="29" max="29" width="7.5703125" customWidth="1"/>
+    <col min="30" max="30" width="7.85546875" customWidth="1"/>
+    <col min="31" max="31" width="14" customWidth="1"/>
+    <col min="32" max="32" width="8.42578125" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" customWidth="1"/>
+    <col min="34" max="34" width="5.7109375" customWidth="1"/>
+    <col min="35" max="35" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,7 +670,7 @@
       <c r="K1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -519,13 +685,16 @@
       <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -548,28 +717,26 @@
       <c r="K2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="2">
-        <v>34.700000000000003</v>
+      <c r="L2" s="10">
+        <v>12.5</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="2">
-        <v>55.5</v>
-      </c>
-      <c r="O2" s="2">
-        <v>646.79999999999995</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O2" s="2"/>
       <c r="P2" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -592,23 +759,21 @@
       <c r="K3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2">
-        <v>22.8</v>
+      <c r="L3" s="10">
+        <v>12.5</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2">
         <v>25</v>
       </c>
-      <c r="N3" s="2">
-        <v>45</v>
-      </c>
-      <c r="O3" s="2">
-        <v>651</v>
-      </c>
+      <c r="O3" s="2"/>
       <c r="P3" s="2">
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -636,23 +801,21 @@
       <c r="K4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2">
-        <v>24.7</v>
+      <c r="L4" s="10">
+        <v>12.5</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="2">
-        <v>49.3</v>
-      </c>
-      <c r="O4" s="2">
-        <v>643.29999999999995</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" s="2">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -668,13 +831,13 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -682,23 +845,27 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -716,195 +883,433 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>25</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <v>5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="10">
+        <v>35.1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="O9" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="P9" s="2">
+        <v>169.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>4</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="10">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="O10" s="2">
+        <v>27.8</v>
+      </c>
+      <c r="P10" s="2">
+        <v>156.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2">
+        <v>4</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2">
+        <v>41</v>
+      </c>
+      <c r="O11" s="2">
+        <v>30</v>
+      </c>
+      <c r="P11" s="2">
+        <v>152.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2">
+        <v>25</v>
+      </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="10">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="P18" s="2">
+        <v>153.19999999999999</v>
+      </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2">
+        <v>100</v>
+      </c>
+      <c r="J19" s="2">
+        <v>4</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="10">
+        <v>27.5</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="O19" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="P19" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>37.5</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2">
+        <v>4</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="10">
+        <v>38.6</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="2">
+        <v>28.7</v>
+      </c>
+      <c r="O20" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="P20" s="2">
+        <v>154.5</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -914,15 +1319,19 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2">
+        <v>10</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -932,34 +1341,50 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="3"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.1</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -968,7 +1393,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="3"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -986,71 +1411,2141 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
+      <c r="L25" s="10"/>
       <c r="M25" s="3"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <v>5</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="10">
+        <v>13.5</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N27" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1.89E-2</v>
+      </c>
+      <c r="P27" s="2">
+        <v>159.19999999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <v>5</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2">
+        <v>100</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="P28" s="2">
+        <v>152.6</v>
+      </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="A29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2">
+        <v>4</v>
+      </c>
+      <c r="G29" s="2">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="2">
+        <v>100</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1.77E-2</v>
+      </c>
+      <c r="P29" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2">
+        <v>10</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2">
+        <v>25</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2">
+        <v>5</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
+        <v>100</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="10">
+        <v>17.2</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1.7900000000000001E-5</v>
+      </c>
+      <c r="P36" s="2">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2">
+        <v>5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>100</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="10">
+        <v>39.1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N37" s="2">
+        <v>48.4</v>
+      </c>
+      <c r="O37" s="3">
+        <v>1.7399999999999999E-5</v>
+      </c>
+      <c r="P37" s="2">
+        <v>146.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2">
+        <v>5</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2">
+        <v>100</v>
+      </c>
+      <c r="J38" s="2">
+        <v>4</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L38" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1.5500000000000001E-5</v>
+      </c>
+      <c r="P38" s="2">
+        <v>146.30000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2">
+        <v>25</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>6</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2">
+        <v>100</v>
+      </c>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="10">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N45" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1.7E-5</v>
+      </c>
+      <c r="P45" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2">
+        <v>100</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="10">
+        <v>31.7</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N46" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1.7E-5</v>
+      </c>
+      <c r="P46" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <v>100</v>
+      </c>
+      <c r="J47" s="2">
+        <v>4</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="10">
+        <v>32.6</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="P47" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="2">
+        <v>10</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>25</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2">
+        <v>100</v>
+      </c>
+      <c r="J54" s="2">
+        <v>4</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="10">
+        <v>20.9</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N54" s="2">
+        <v>39</v>
+      </c>
+      <c r="O54" s="3">
+        <v>7.1599999999999995E-4</v>
+      </c>
+      <c r="P54" s="2">
+        <v>152.5</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>7</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2">
+        <v>100</v>
+      </c>
+      <c r="J55" s="2">
+        <v>4</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N55" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="O55" s="3">
+        <v>9.2800000000000001E-4</v>
+      </c>
+      <c r="P55" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2">
+        <v>100</v>
+      </c>
+      <c r="J56" s="2">
+        <v>4</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="10">
+        <v>21.9</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" s="2">
+        <v>39.28</v>
+      </c>
+      <c r="O56" s="3">
+        <v>8.3600000000000005E-4</v>
+      </c>
+      <c r="P56" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="2">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="L62" s="11"/>
+      <c r="Q62" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2">
+        <v>25</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2">
+        <v>5</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="2">
+        <v>100</v>
+      </c>
+      <c r="J63" s="2">
+        <v>4</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L63" s="10">
+        <v>15.3</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N63" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1.42E-3</v>
+      </c>
+      <c r="P63" s="2">
+        <v>151</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>0.45</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2">
+        <v>25</v>
+      </c>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD63" s="10">
+        <v>17.5</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>1.08E-3</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>155</v>
+      </c>
+      <c r="AI63" s="9">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="2">
+        <v>100</v>
+      </c>
+      <c r="J64" s="2">
+        <v>4</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L64" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="M64" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N64" s="2">
+        <v>41.6</v>
+      </c>
+      <c r="O64" s="3">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="P64" s="2">
+        <v>152</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T64" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD64" s="10">
+        <v>21.1</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>1.06E-3</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>145</v>
+      </c>
+      <c r="AI64" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2">
+        <v>5</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="2">
+        <v>100</v>
+      </c>
+      <c r="J65" s="2">
+        <v>4</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L65" s="10">
+        <v>20.7</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N65" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O65" s="3">
+        <v>1.41E-3</v>
+      </c>
+      <c r="P65" s="2">
+        <v>151</v>
+      </c>
+      <c r="Q65" s="9">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T65" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>100</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD65" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="AE65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>1.09E-3</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>155</v>
+      </c>
+      <c r="AI65" s="9">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2">
+        <v>5</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="2">
+        <v>200</v>
+      </c>
+      <c r="J66" s="2">
+        <v>4</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="10">
+        <v>14.8</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N66" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="O66" s="3">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="P66" s="2">
+        <v>307</v>
+      </c>
+      <c r="Q66" s="9">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="10">
+        <v>16</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF66" s="2">
+        <v>35</v>
+      </c>
+      <c r="AG66" s="3">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>307</v>
+      </c>
+      <c r="AI66" s="9">
+        <v>0.48199999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B67" s="2">
+        <v>10</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2">
+        <v>5</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2">
+        <v>200</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L67" s="10">
+        <v>15.2</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="O67" s="3">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="P67" s="2">
+        <v>307</v>
+      </c>
+      <c r="Q67" s="9">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T67" s="2">
+        <v>10</v>
+      </c>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD67" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="AE67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="AG67" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>307</v>
+      </c>
+      <c r="AI67" s="9">
+        <v>0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" s="2">
+        <v>8</v>
+      </c>
+      <c r="G68" s="2">
+        <v>5</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="2">
+        <v>200</v>
+      </c>
+      <c r="J68" s="2">
+        <v>4</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L68" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="O68" s="3">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="P68" s="2">
+        <v>308</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="U68" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V68" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W68" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X68" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>200</v>
+      </c>
+      <c r="AB68" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD68" s="10">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="AE68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF68" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="AH68" s="2">
+        <v>308</v>
+      </c>
+      <c r="AI68" s="9">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2">
+        <v>5</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="2">
+        <v>300</v>
+      </c>
+      <c r="J69" s="2">
+        <v>4</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L69" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="M69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N69" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="O69" s="3">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="P69" s="2">
+        <v>463</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U69" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>300</v>
+      </c>
+      <c r="AB69" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD69" s="10">
+        <v>21.4</v>
+      </c>
+      <c r="AE69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF69" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="AH69" s="2">
+        <v>463</v>
+      </c>
+      <c r="AI69" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2">
+        <v>5</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="2">
+        <v>300</v>
+      </c>
+      <c r="J70" s="2">
+        <v>4</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L70" s="10">
+        <v>21.9</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N70" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="O70" s="3">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="P70" s="2">
+        <v>467</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>300</v>
+      </c>
+      <c r="AB70" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD70" s="10">
+        <v>21.9</v>
+      </c>
+      <c r="AE70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF70" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>1.3600000000000001E-3</v>
+      </c>
+      <c r="AH70" s="2">
+        <v>467</v>
+      </c>
+      <c r="AI70" s="9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="F71" s="2">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2">
+        <v>5</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="2">
+        <v>300</v>
+      </c>
+      <c r="J71" s="2">
+        <v>4</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L71" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N71" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="O71" s="3">
+        <v>1.58E-3</v>
+      </c>
+      <c r="P71" s="2">
+        <v>464</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="X71" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>5</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>300</v>
+      </c>
+      <c r="AB71" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD71" s="10">
+        <v>19.5</v>
+      </c>
+      <c r="AE71" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF71" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>1.58E-3</v>
+      </c>
+      <c r="AH71" s="2">
+        <v>464</v>
+      </c>
+      <c r="AI71" s="9">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="L73" s="11"/>
+      <c r="Q73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2">
+        <v>25</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2">
+        <v>5</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="2">
+        <v>100</v>
+      </c>
+      <c r="J74" s="2">
+        <v>4</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L74" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="M74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N74" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="O74" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P74" s="2">
+        <v>269</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2">
+        <v>5</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="2">
+        <v>100</v>
+      </c>
+      <c r="J75" s="2">
+        <v>4</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L75" s="10">
+        <v>19.3</v>
+      </c>
+      <c r="M75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N75" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O75" s="3">
+        <v>1.16E-3</v>
+      </c>
+      <c r="P75" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="4">
+        <v>37.5</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2">
+        <v>5</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="2">
+        <v>100</v>
+      </c>
+      <c r="J76" s="2">
+        <v>4</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N76" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1.64E-3</v>
+      </c>
+      <c r="P76" s="2">
+        <v>268</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>0.48299999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="9"/>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="2">
+        <v>10</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="9"/>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="9"/>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="9"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="9"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
